--- a/RNN_python/schd_sam_output_data/anom_data12.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data12.xlsx
@@ -429,7 +429,7 @@
         <v>43376</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.97278403943497</v>
+        <v>-1.673601976630451</v>
       </c>
     </row>
     <row r="3">
@@ -439,7 +439,7 @@
         <v>43376.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5523304141071179</v>
+        <v>2.041223855208671</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +449,7 @@
         <v>43376.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3725829815212052</v>
+        <v>4.311351660262517</v>
       </c>
     </row>
     <row r="5">
@@ -459,7 +459,7 @@
         <v>43376.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.222154922281732</v>
+        <v>4.519908525868928</v>
       </c>
     </row>
     <row r="6">
@@ -469,7 +469,7 @@
         <v>43376.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.776451939483209</v>
+        <v>2.786735174873726</v>
       </c>
     </row>
     <row r="7">
@@ -479,7 +479,7 @@
         <v>43376.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.255391639553437</v>
+        <v>2.24436903610669</v>
       </c>
     </row>
     <row r="8">
@@ -489,7 +489,7 @@
         <v>43376.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.87095786776122</v>
+        <v>11.55699125783143</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>43376.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>33.93534891333662</v>
+        <v>29.24934479858758</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>43376.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>384.4643389410455</v>
+        <v>425.6218295784358</v>
       </c>
     </row>
     <row r="11">
@@ -519,7 +519,7 @@
         <v>43376.375</v>
       </c>
       <c r="D11" t="n">
-        <v>323.1675788041925</v>
+        <v>339.5394029479532</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>43376.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>310.9662747495944</v>
+        <v>338.6613201389562</v>
       </c>
     </row>
     <row r="13">
@@ -539,7 +539,7 @@
         <v>43376.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>195.3140331477768</v>
+        <v>208.6082603096244</v>
       </c>
     </row>
     <row r="14">
@@ -549,7 +549,7 @@
         <v>43376.5</v>
       </c>
       <c r="D14" t="n">
-        <v>187.5818515576085</v>
+        <v>202.3251612889605</v>
       </c>
     </row>
     <row r="15">
@@ -559,7 +559,7 @@
         <v>43376.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>152.1166809578335</v>
+        <v>156.6099990728429</v>
       </c>
     </row>
     <row r="16">
@@ -569,7 +569,7 @@
         <v>43376.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>118.6195670586025</v>
+        <v>115.1489126728168</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>43376.625</v>
       </c>
       <c r="D17" t="n">
-        <v>82.97122678864602</v>
+        <v>81.36993358259166</v>
       </c>
     </row>
     <row r="18">
@@ -589,7 +589,7 @@
         <v>43376.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>56.3084883927181</v>
+        <v>55.81734919990106</v>
       </c>
     </row>
     <row r="19">
@@ -599,7 +599,7 @@
         <v>43376.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>38.09166180365592</v>
+        <v>37.33956946824946</v>
       </c>
     </row>
     <row r="20">
@@ -609,7 +609,7 @@
         <v>43376.75</v>
       </c>
       <c r="D20" t="n">
-        <v>25.55306656041416</v>
+        <v>24.47954725860464</v>
       </c>
     </row>
     <row r="21">
@@ -619,7 +619,7 @@
         <v>43376.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>16.83517393097961</v>
+        <v>15.84832415737661</v>
       </c>
     </row>
     <row r="22">
@@ -629,7 +629,7 @@
         <v>43376.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>10.85781485397979</v>
+        <v>10.26198693593091</v>
       </c>
     </row>
     <row r="23">
@@ -639,7 +639,7 @@
         <v>43376.875</v>
       </c>
       <c r="D23" t="n">
-        <v>6.860996714982903</v>
+        <v>6.767886867280211</v>
       </c>
     </row>
     <row r="24">
@@ -649,7 +649,7 @@
         <v>43376.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>4.235262709053828</v>
+        <v>4.611345297007546</v>
       </c>
     </row>
     <row r="25">
@@ -659,7 +659,7 @@
         <v>43376.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.727882604693448</v>
+        <v>4.364174730264565</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data12.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data12.xlsx
@@ -426,240 +426,240 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43376</v>
+        <v>43411</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.673601976630451</v>
+        <v>-12.20621701812595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43376.04166666666</v>
+        <v>43411.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>2.041223855208671</v>
+        <v>-12.76652948077194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43376.08333333334</v>
+        <v>43411.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>4.311351660262517</v>
+        <v>-8.644774231532608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43376.125</v>
+        <v>43411.125</v>
       </c>
       <c r="D5" t="n">
-        <v>4.519908525868928</v>
+        <v>-5.468468173647352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43376.16666666666</v>
+        <v>43411.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>2.786735174873726</v>
+        <v>-1.747798813524881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43376.20833333334</v>
+        <v>43411.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2.24436903610669</v>
+        <v>0.2268965526247655</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43376.25</v>
+        <v>43411.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11.55699125783143</v>
+        <v>-5.0561942088016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43376.29166666666</v>
+        <v>43411.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>29.24934479858758</v>
+        <v>4.467470680565256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43376.33333333334</v>
+        <v>43411.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>425.6218295784358</v>
+        <v>205.1114676048799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43376.375</v>
+        <v>43411.375</v>
       </c>
       <c r="D11" t="n">
-        <v>339.5394029479532</v>
+        <v>456.7674958150827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43376.41666666666</v>
+        <v>43411.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>338.6613201389562</v>
+        <v>458.0873858590249</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43376.45833333334</v>
+        <v>43411.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>208.6082603096244</v>
+        <v>408.5892185899321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43376.5</v>
+        <v>43411.5</v>
       </c>
       <c r="D14" t="n">
-        <v>202.3251612889605</v>
+        <v>301.1909610021689</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43376.54166666666</v>
+        <v>43411.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>156.6099990728429</v>
+        <v>262.7539292897186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43376.58333333334</v>
+        <v>43411.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>115.1489126728168</v>
+        <v>214.8120593229477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43376.625</v>
+        <v>43411.625</v>
       </c>
       <c r="D17" t="n">
-        <v>81.36993358259166</v>
+        <v>160.8514636848215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43376.66666666666</v>
+        <v>43411.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>55.81734919990106</v>
+        <v>107.5160704020312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43376.70833333334</v>
+        <v>43411.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>37.33956946824946</v>
+        <v>69.50578048331968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43376.75</v>
+        <v>43411.75</v>
       </c>
       <c r="D20" t="n">
-        <v>24.47954725860464</v>
+        <v>43.95419378234115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43376.79166666666</v>
+        <v>43411.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>15.84832415737661</v>
+        <v>27.38407623984753</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43376.83333333334</v>
+        <v>43411.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>10.26198693593091</v>
+        <v>16.76520096269468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43376.875</v>
+        <v>43411.875</v>
       </c>
       <c r="D23" t="n">
-        <v>6.767886867280211</v>
+        <v>10.2632251963303</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43376.91666666666</v>
+        <v>43411.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>4.611345297007546</v>
+        <v>6.598004015243234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43376.95833333334</v>
+        <v>43411.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>4.364174730264565</v>
+        <v>-16.2604935940393</v>
       </c>
     </row>
   </sheetData>
@@ -717,17 +717,17 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43376</v>
+        <v>43411</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43376.04166666666</v>
+        <v>43411.04166666666</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -737,220 +737,220 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43376.08333333334</v>
+        <v>43411.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43376.125</v>
+        <v>43411.125</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43376.16666666666</v>
+        <v>43411.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43376.20833333334</v>
+        <v>43411.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43376.25</v>
+        <v>43411.25</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43376.29166666666</v>
+        <v>43411.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43376.33333333334</v>
+        <v>43411.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>531</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43376.375</v>
+        <v>43411.375</v>
       </c>
       <c r="D11" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43376.41666666666</v>
+        <v>43411.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>481</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43376.45833333334</v>
+        <v>43411.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>273</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43376.5</v>
+        <v>43411.5</v>
       </c>
       <c r="D14" t="n">
-        <v>285</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43376.54166666666</v>
+        <v>43411.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>187</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43376.58333333334</v>
+        <v>43411.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43376.625</v>
+        <v>43411.625</v>
       </c>
       <c r="D17" t="n">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43376.66666666666</v>
+        <v>43411.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43376.70833333334</v>
+        <v>43411.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43376.75</v>
+        <v>43411.75</v>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43376.79166666666</v>
+        <v>43411.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43376.83333333334</v>
+        <v>43411.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43376.875</v>
+        <v>43411.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43376.91666666666</v>
+        <v>43411.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43376.95833333334</v>
+        <v>43411.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data12.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data12.xlsx
@@ -422,244 +422,244 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43411</v>
+        <v>43329</v>
       </c>
       <c r="D2" t="n">
-        <v>-12.20621701812595</v>
+        <v>3.836545011239934</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43411.04166666666</v>
+        <v>43329.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-12.76652948077194</v>
+        <v>0.8673154256206743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43411.08333333334</v>
+        <v>43329.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.644774231532608</v>
+        <v>2.424930543269227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43411.125</v>
+        <v>43329.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.468468173647352</v>
+        <v>3.330293432082385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43411.16666666666</v>
+        <v>43329.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.747798813524881</v>
+        <v>3.003388143213044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43411.20833333334</v>
+        <v>43329.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2268965526247655</v>
+        <v>3.200125909854052</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43411.25</v>
+        <v>43329.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.0561942088016</v>
+        <v>13.09437812410748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43411.29166666666</v>
+        <v>43329.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>4.467470680565256</v>
+        <v>43.82557829236521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43411.33333333334</v>
+        <v>43329.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>205.1114676048799</v>
+        <v>453.1403059939263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43411.375</v>
+        <v>43329.375</v>
       </c>
       <c r="D11" t="n">
-        <v>456.7674958150827</v>
+        <v>361.1677338302043</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43411.41666666666</v>
+        <v>43329.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>458.0873858590249</v>
+        <v>332.0137340480934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43411.45833333334</v>
+        <v>43329.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>408.5892185899321</v>
+        <v>214.9701118769041</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43411.5</v>
+        <v>43329.5</v>
       </c>
       <c r="D14" t="n">
-        <v>301.1909610021689</v>
+        <v>201.414806376773</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43411.54166666666</v>
+        <v>43329.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>262.7539292897186</v>
+        <v>178.0615107487693</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43411.58333333334</v>
+        <v>43329.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>214.8120593229477</v>
+        <v>129.2782418063066</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43411.625</v>
+        <v>43329.625</v>
       </c>
       <c r="D17" t="n">
-        <v>160.8514636848215</v>
+        <v>91.01791673577098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43411.66666666666</v>
+        <v>43329.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>107.5160704020312</v>
+        <v>70.12072460177332</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43411.70833333334</v>
+        <v>43329.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>69.50578048331968</v>
+        <v>46.6342714641431</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43411.75</v>
+        <v>43329.75</v>
       </c>
       <c r="D20" t="n">
-        <v>43.95419378234115</v>
+        <v>31.36495994319685</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43411.79166666666</v>
+        <v>43329.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>27.38407623984753</v>
+        <v>20.62807216588823</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43411.83333333334</v>
+        <v>43329.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>16.76520096269468</v>
+        <v>13.64445259256989</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43411.875</v>
+        <v>43329.875</v>
       </c>
       <c r="D23" t="n">
-        <v>10.2632251963303</v>
+        <v>9.642317581683145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43411.91666666666</v>
+        <v>43329.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6.598004015243234</v>
+        <v>7.540982427993399</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43411.95833333334</v>
+        <v>43329.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-16.2604935940393</v>
+        <v>8.20730518576147</v>
       </c>
     </row>
   </sheetData>
@@ -713,61 +713,61 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43411</v>
+        <v>43329</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43411.04166666666</v>
+        <v>43329.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43411.08333333334</v>
+        <v>43329.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43411.125</v>
+        <v>43329.125</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43411.16666666666</v>
+        <v>43329.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43411.20833333334</v>
+        <v>43329.20833333334</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43411.25</v>
+        <v>43329.25</v>
       </c>
       <c r="D8" t="n">
         <v>8</v>
@@ -787,170 +787,170 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43411.29166666666</v>
+        <v>43329.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43411.33333333334</v>
+        <v>43329.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>469</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43411.375</v>
+        <v>43329.375</v>
       </c>
       <c r="D11" t="n">
-        <v>410</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43411.41666666666</v>
+        <v>43329.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>513</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43411.45833333334</v>
+        <v>43329.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>235</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43411.5</v>
+        <v>43329.5</v>
       </c>
       <c r="D14" t="n">
-        <v>332</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43411.54166666666</v>
+        <v>43329.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>250</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43411.58333333334</v>
+        <v>43329.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>163</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43411.625</v>
+        <v>43329.625</v>
       </c>
       <c r="D17" t="n">
-        <v>127</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43411.66666666666</v>
+        <v>43329.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43411.70833333334</v>
+        <v>43329.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43411.75</v>
+        <v>43329.75</v>
       </c>
       <c r="D20" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43411.79166666666</v>
+        <v>43329.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43411.83333333334</v>
+        <v>43329.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43411.875</v>
+        <v>43329.875</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43411.91666666666</v>
+        <v>43329.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43411.95833333334</v>
+        <v>43329.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
